--- a/TREC Alliance/29196/ITP - E3001A SH05 SIP Site 1_Pavement Construction.xlsx
+++ b/TREC Alliance/29196/ITP - E3001A SH05 SIP Site 1_Pavement Construction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://trecnz.sharepoint.com/sites/ZONEE-SH5-HAWKESBAY/Shared Documents/E3001 - SH5 - SIP - Sites 1, 2, 7 and 16/E3001A - SH5 - SIP - Site 1/07 Quality/0701 ITP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\TREC Alliance\29196\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F89015C-B3D9-4731-8B6C-817971890661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2EE893-4117-4B6E-92BE-23AC93B8CF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2715" yWindow="720" windowWidth="29010" windowHeight="19710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pavement Construction" sheetId="1" r:id="rId1"/>
@@ -603,7 +603,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -708,6 +708,10 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1562,9 +1566,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1630,7 +1631,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1761,6 +1762,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1940,8 +1944,8 @@
       <xdr:rowOff>29008</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>979714</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>214993</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>450397</xdr:rowOff>
     </xdr:to>
@@ -1989,9 +1993,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2029,9 +2033,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2064,26 +2068,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2116,26 +2103,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2311,13 +2281,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:I8"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" customWidth="1"/>
     <col min="3" max="3" width="33.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" style="6" customWidth="1"/>
@@ -2326,8 +2296,8 @@
     <col min="7" max="7" width="25.42578125" customWidth="1"/>
     <col min="8" max="8" width="36" customWidth="1"/>
     <col min="9" max="9" width="30.42578125" customWidth="1"/>
-    <col min="10" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="10" max="11" width="15.7109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -2336,19 +2306,19 @@
       <c r="C2" s="4"/>
       <c r="D2" s="7"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="112" t="s">
+      <c r="F2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="113"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="124" t="s">
+      <c r="G2" s="112"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="125"/>
-      <c r="K2" s="106" t="s">
+      <c r="J2" s="124"/>
+      <c r="K2" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="107"/>
+      <c r="L2" s="106"/>
     </row>
     <row r="3" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
@@ -2356,10 +2326,10 @@
       <c r="F3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="110" t="s">
+      <c r="G3" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="111"/>
+      <c r="H3" s="110"/>
       <c r="I3" s="37" t="s">
         <v>5</v>
       </c>
@@ -2378,10 +2348,10 @@
       <c r="F4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="108" t="s">
+      <c r="G4" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="109"/>
+      <c r="H4" s="108"/>
       <c r="I4" s="41" t="s">
         <v>11</v>
       </c>
@@ -2391,77 +2361,77 @@
       <c r="K4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="79" t="s">
+      <c r="L4" s="78" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="84"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="83"/>
       <c r="I5" s="43"/>
       <c r="J5" s="44"/>
       <c r="K5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="L5" s="59" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="115" t="s">
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="115"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="97" t="s">
+      <c r="G6" s="114"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="98"/>
-      <c r="L6" s="99"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="98"/>
     </row>
     <row r="7" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="102"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="101"/>
     </row>
     <row r="8" spans="2:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="105"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="104"/>
     </row>
     <row r="9" spans="2:12" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="25" t="s">
@@ -2528,19 +2498,19 @@
       <c r="L10" s="16"/>
     </row>
     <row r="11" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="94" t="s">
+      <c r="B11" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="96"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="95"/>
     </row>
     <row r="12" spans="2:12" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="20">
@@ -2609,19 +2579,19 @@
       <c r="L13" s="16"/>
     </row>
     <row r="14" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="96"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="95"/>
     </row>
     <row r="15" spans="2:12" ht="60" x14ac:dyDescent="0.2">
       <c r="B15" s="20">
@@ -2642,7 +2612,7 @@
       <c r="G15" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="58" t="s">
+      <c r="H15" s="125" t="s">
         <v>58</v>
       </c>
       <c r="I15" s="21" t="s">
@@ -2656,7 +2626,7 @@
       </c>
       <c r="L15" s="16"/>
     </row>
-    <row r="16" spans="2:12" ht="105" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12" ht="90" x14ac:dyDescent="0.2">
       <c r="B16" s="20">
         <v>5</v>
       </c>
@@ -2675,7 +2645,7 @@
       <c r="G16" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="59" t="s">
+      <c r="H16" s="58" t="s">
         <v>63</v>
       </c>
       <c r="I16" s="21" t="s">
@@ -2845,21 +2815,21 @@
       <c r="L21" s="16"/>
     </row>
     <row r="22" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="94" t="s">
+      <c r="B22" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="96"/>
-    </row>
-    <row r="23" spans="2:12" ht="60" x14ac:dyDescent="0.2">
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="95"/>
+    </row>
+    <row r="23" spans="2:12" ht="45" x14ac:dyDescent="0.2">
       <c r="B23" s="20">
         <v>11</v>
       </c>
@@ -2878,7 +2848,7 @@
       <c r="G23" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="61" t="s">
+      <c r="H23" s="60" t="s">
         <v>86</v>
       </c>
       <c r="I23" s="21" t="s">
@@ -2892,7 +2862,7 @@
       </c>
       <c r="L23" s="16"/>
     </row>
-    <row r="24" spans="2:12" ht="105" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12" ht="90" x14ac:dyDescent="0.2">
       <c r="B24" s="20">
         <v>12</v>
       </c>
@@ -3112,19 +3082,19 @@
       <c r="L30" s="16"/>
     </row>
     <row r="31" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="95"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="96"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="95"/>
     </row>
     <row r="32" spans="2:12" ht="30" x14ac:dyDescent="0.2">
       <c r="B32" s="47">
@@ -3373,19 +3343,19 @@
       <c r="L39" s="16"/>
     </row>
     <row r="40" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>136</v>
       </c>
-      <c r="C40" s="95"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="95"/>
-      <c r="G40" s="95"/>
-      <c r="H40" s="95"/>
-      <c r="I40" s="95"/>
-      <c r="J40" s="95"/>
-      <c r="K40" s="95"/>
-      <c r="L40" s="96"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="94"/>
+      <c r="H40" s="94"/>
+      <c r="I40" s="94"/>
+      <c r="J40" s="94"/>
+      <c r="K40" s="94"/>
+      <c r="L40" s="95"/>
     </row>
     <row r="41" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="47">
@@ -3421,19 +3391,19 @@
       <c r="L41" s="16"/>
     </row>
     <row r="42" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="94" t="s">
+      <c r="B42" s="93" t="s">
         <v>139</v>
       </c>
-      <c r="C42" s="95"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="95"/>
-      <c r="G42" s="95"/>
-      <c r="H42" s="95"/>
-      <c r="I42" s="95"/>
-      <c r="J42" s="95"/>
-      <c r="K42" s="95"/>
-      <c r="L42" s="96"/>
+      <c r="C42" s="94"/>
+      <c r="D42" s="94"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="94"/>
+      <c r="G42" s="94"/>
+      <c r="H42" s="94"/>
+      <c r="I42" s="94"/>
+      <c r="J42" s="94"/>
+      <c r="K42" s="94"/>
+      <c r="L42" s="95"/>
     </row>
     <row r="43" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="28">
@@ -3469,74 +3439,74 @@
       <c r="L43" s="55"/>
     </row>
     <row r="44" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="94" t="s">
+      <c r="B44" s="93" t="s">
         <v>142</v>
       </c>
-      <c r="C44" s="95"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="95"/>
-      <c r="F44" s="95"/>
-      <c r="G44" s="95"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="95"/>
-      <c r="J44" s="95"/>
-      <c r="K44" s="95"/>
-      <c r="L44" s="96"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="94"/>
+      <c r="G44" s="94"/>
+      <c r="H44" s="94"/>
+      <c r="I44" s="94"/>
+      <c r="J44" s="94"/>
+      <c r="K44" s="94"/>
+      <c r="L44" s="95"/>
     </row>
     <row r="45" spans="1:12" ht="60" x14ac:dyDescent="0.2">
-      <c r="B45" s="62">
+      <c r="B45" s="61">
         <v>29</v>
       </c>
-      <c r="C45" s="63" t="s">
+      <c r="C45" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="D45" s="64" t="s">
+      <c r="D45" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="E45" s="64" t="s">
+      <c r="E45" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="F45" s="64" t="s">
+      <c r="F45" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="G45" s="64" t="s">
+      <c r="G45" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="H45" s="64" t="s">
+      <c r="H45" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="I45" s="65" t="s">
+      <c r="I45" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="J45" s="66" t="s">
+      <c r="J45" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="K45" s="67"/>
-      <c r="L45" s="68"/>
+      <c r="K45" s="66"/>
+      <c r="L45" s="67"/>
     </row>
     <row r="46" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
-      <c r="B46" s="69">
+      <c r="B46" s="68">
         <v>30</v>
       </c>
-      <c r="C46" s="70" t="s">
+      <c r="C46" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="D46" s="71"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="72" t="s">
+      <c r="D46" s="70"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="70"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="J46" s="73" t="s">
+      <c r="J46" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="K46" s="74" t="s">
+      <c r="K46" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="L46" s="75" t="s">
+      <c r="L46" s="74" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3554,10 +3524,10 @@
       <c r="K47" s="6"/>
     </row>
     <row r="48" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="81" t="s">
+      <c r="B48" s="80" t="s">
         <v>155</v>
       </c>
-      <c r="C48" s="81"/>
+      <c r="C48" s="80"/>
     </row>
     <row r="49" spans="2:12" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B49" s="31" t="s">
@@ -3720,8 +3690,8 @@
       <c r="I56" s="33"/>
     </row>
     <row r="57" spans="2:12" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B57" s="76"/>
-      <c r="C57" s="76"/>
+      <c r="B57" s="75"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="33"/>
       <c r="E57" s="33"/>
       <c r="F57" s="33"/>
@@ -3730,10 +3700,10 @@
       <c r="I57" s="33"/>
     </row>
     <row r="58" spans="2:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="80" t="s">
+      <c r="B58" s="79" t="s">
         <v>159</v>
       </c>
-      <c r="C58" s="80"/>
+      <c r="C58" s="79"/>
       <c r="D58" s="35" t="s">
         <v>156</v>
       </c>
@@ -3763,8 +3733,8 @@
       </c>
     </row>
     <row r="59" spans="2:12" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="77"/>
-      <c r="C59" s="76"/>
+      <c r="B59" s="76"/>
+      <c r="C59" s="75"/>
       <c r="D59" s="33"/>
       <c r="E59" s="33"/>
       <c r="G59" s="33"/>
@@ -3773,8 +3743,8 @@
       <c r="K59" s="36"/>
     </row>
     <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="77"/>
-      <c r="C60" s="76"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="75"/>
       <c r="D60" s="33"/>
       <c r="E60" s="33"/>
       <c r="F60" s="6"/>
@@ -3786,10 +3756,10 @@
       <c r="L60" s="6"/>
     </row>
     <row r="61" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="80" t="s">
+      <c r="B61" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="C61" s="80"/>
+      <c r="C61" s="79"/>
       <c r="D61" s="35" t="s">
         <v>156</v>
       </c>
@@ -3819,8 +3789,8 @@
       </c>
     </row>
     <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="77"/>
-      <c r="C62" s="76"/>
+      <c r="B62" s="76"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="33"/>
       <c r="E62" s="33"/>
       <c r="F62" s="30"/>
@@ -3832,8 +3802,8 @@
       <c r="L62" s="6"/>
     </row>
     <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="77"/>
-      <c r="C63" s="76"/>
+      <c r="B63" s="76"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="33"/>
       <c r="E63" s="33"/>
       <c r="F63" s="6"/>
@@ -3845,10 +3815,10 @@
       <c r="L63" s="6"/>
     </row>
     <row r="64" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="80" t="s">
+      <c r="B64" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="C64" s="80"/>
+      <c r="C64" s="79"/>
       <c r="D64" s="35" t="s">
         <v>156</v>
       </c>
@@ -3878,8 +3848,8 @@
       </c>
     </row>
     <row r="65" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="77"/>
-      <c r="C65" s="76"/>
+      <c r="B65" s="76"/>
+      <c r="C65" s="75"/>
       <c r="D65" s="33"/>
       <c r="E65" s="33"/>
       <c r="F65" s="30"/>
@@ -3890,8 +3860,8 @@
       <c r="K65" s="36"/>
     </row>
     <row r="66" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="77"/>
-      <c r="C66" s="76"/>
+      <c r="B66" s="76"/>
+      <c r="C66" s="75"/>
       <c r="D66" s="33"/>
       <c r="E66" s="33"/>
       <c r="F66" s="30"/>
@@ -3902,10 +3872,10 @@
       <c r="K66" s="6"/>
     </row>
     <row r="67" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="80" t="s">
+      <c r="B67" s="79" t="s">
         <v>164</v>
       </c>
-      <c r="C67" s="80"/>
+      <c r="C67" s="79"/>
       <c r="D67" s="35" t="s">
         <v>156</v>
       </c>
@@ -3935,8 +3905,8 @@
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B68" s="78"/>
-      <c r="C68" s="78"/>
+      <c r="B68" s="77"/>
+      <c r="C68" s="77"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1"/>
@@ -4163,6 +4133,65 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_dlc_DocId xmlns="6b52167f-bd76-444c-91ba-391bd6f89101">ZONEE-1494746756-2386</_dlc_DocId>
@@ -4178,7 +4207,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DD10F8FD5832D439B2F2349C378C0CF" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="07d958b2814a296d22bb8b59d78d012f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6b52167f-bd76-444c-91ba-391bd6f89101" xmlns:ns3="de5d2c5c-e379-42cf-85a4-2a4633504156" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="408564e4219e5d6c6547c24f8edec430" ns2:_="" ns3:_="">
     <xsd:import namespace="6b52167f-bd76-444c-91ba-391bd6f89101"/>
@@ -4438,66 +4467,23 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C431377-D948-49C8-87FF-7900014F55CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B4DD40F-BBEF-4F1D-88DF-873BB8DDC7B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA39E448-FC0A-4B1A-9D42-52CBB44E21CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4514,7 +4500,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFE970FC-4E6B-4DBF-AAA4-6B2D1630BF18}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4531,20 +4517,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C431377-D948-49C8-87FF-7900014F55CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B4DD40F-BBEF-4F1D-88DF-873BB8DDC7B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>